--- a/database/ChatRecord.xlsx
+++ b/database/ChatRecord.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC9CD7C-A96A-FA4B-AC19-A5DF4B485C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806088A4-A0CC-364C-A96B-0DC56B670D0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表格全文" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -38,6 +38,12 @@
     <t>接收方ID</t>
   </si>
   <si>
+    <t>消息类型</t>
+  </si>
+  <si>
+    <t>附件</t>
+  </si>
+  <si>
     <t>eae2822c-6500-4d67-b16d-73009ba6e791</t>
   </si>
   <si>
@@ -53,11 +59,13 @@
     <t>测试</t>
   </si>
   <si>
-    <t>abcs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55027590@chatroom</t>
+    <t>5550027590@chatroom</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>tyabcuyc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -65,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,14 +86,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -106,17 +106,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -453,24 +450,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,35 +484,44 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{F3F6783E-2958-A14E-89B0-8153CC1DE9C9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
